--- a/Копия работа с таблицами. Путятова Людмила.xlsx
+++ b/Копия работа с таблицами. Путятова Людмила.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finplif/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27B671DA-3590-7C4C-8B3E-D41BA231DD63}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4231C1-BF45-3F43-A00D-C926A8C7681A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="13880" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="13880" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prefix.tense" sheetId="9" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId9"/>
-    <pivotCache cacheId="14" r:id="rId10"/>
-    <pivotCache cacheId="18" r:id="rId11"/>
+    <pivotCache cacheId="19" r:id="rId9"/>
+    <pivotCache cacheId="20" r:id="rId10"/>
+    <pivotCache cacheId="21" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3071,7 +3071,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -13552,9 +13552,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Путятова Людмила Эдуардовна" refreshedDate="43368.763797685184" createdVersion="1" refreshedVersion="6" recordCount="50" upgradeOnRefresh="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Путятова Людмила Эдуардовна" refreshedDate="43368.763797685184" createdVersion="1" refreshedVersion="6" recordCount="50" upgradeOnRefresh="1" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:AC51" sheet="спутать.перепутать"/>
+    <worksheetSource ref="E1:AA51" sheet="спутать.перепутать"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="prefix" numFmtId="0">
@@ -13588,9 +13588,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Путятова Людмила Эдуардовна" refreshedDate="43368.770329166669" createdVersion="1" refreshedVersion="6" recordCount="50" upgradeOnRefresh="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Путятова Людмила Эдуардовна" refreshedDate="43368.770329166669" createdVersion="1" refreshedVersion="6" recordCount="50" upgradeOnRefresh="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:K51" sheet="спутать.перепутать"/>
+    <worksheetSource ref="E1:J51" sheet="спутать.перепутать"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="prefix" numFmtId="0">
@@ -13635,9 +13635,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Путятова Людмила Эдуардовна" refreshedDate="43368.773691782408" createdVersion="1" refreshedVersion="6" recordCount="50" upgradeOnRefresh="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Путятова Людмила Эдуардовна" refreshedDate="43368.773691782408" createdVersion="1" refreshedVersion="6" recordCount="50" upgradeOnRefresh="1" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:F51" sheet="спутать.перепутать"/>
+    <worksheetSource ref="E1:R51" sheet="спутать.перепутать"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="prefix" numFmtId="0">
@@ -14452,7 +14452,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A2:D6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -14547,7 +14547,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Сводная таблица2" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -14681,7 +14681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Сводная таблица3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:I8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -14874,7 +14874,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица4" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Сводная таблица4" cacheId="20" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -15009,7 +15009,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица5" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Сводная таблица5" cacheId="20" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -15144,7 +15144,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Сводная таблица6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -15263,7 +15263,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица7" cacheId="18" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Сводная таблица7" cacheId="21" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:AC7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -16043,7 +16043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16134,7 +16134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16261,7 +16261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -16435,7 +16435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16560,7 +16560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16689,7 +16689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16807,10 +16807,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -17186,11 +17186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="E51" sqref="E1:F51"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17198,10 +17198,10 @@
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.83203125" customWidth="1"/>
-    <col min="13" max="13" width="43.83203125" customWidth="1"/>
+    <col min="12" max="12" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -17217,68 +17217,68 @@
       <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>72</v>
+      <c r="S1" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -17294,65 +17294,65 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3">
-        <v>2001</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="R2" s="3">
+        <v>2001</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -17368,68 +17368,68 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="S3" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AB3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -17445,68 +17445,68 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>18</v>
+      <c r="K4" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="N4" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="S4" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T4" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AB4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -17522,68 +17522,68 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="S5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="V5" s="3" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AB5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -17599,68 +17599,68 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="S6" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AB6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -17676,68 +17676,68 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="S7" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="T7" s="3" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AB7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -17753,68 +17753,68 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="S8" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T8" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="AB8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -17830,68 +17830,68 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>36</v>
+      <c r="S9" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -17907,68 +17907,68 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>46</v>
+      <c r="S10" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -17984,68 +17984,68 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>42</v>
+      <c r="S11" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AB11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -18061,68 +18061,68 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>40</v>
+      <c r="S12" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="Y12" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AB12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -18138,68 +18138,68 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>18</v>
+      <c r="K13" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="M13" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="N13" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="Y13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AB13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -18215,68 +18215,68 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="s">
-        <v>15</v>
+      <c r="K14" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="N14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="S14" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T14" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Y14" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AB14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -18292,68 +18292,68 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>41</v>
+      <c r="S15" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Y15" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AB15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -18369,68 +18369,68 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>32</v>
+      <c r="S16" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="Y16" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AB16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>241</v>
       </c>
@@ -18446,68 +18446,68 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="S17" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T17" s="3" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AB17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -18523,68 +18523,68 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>37</v>
+      <c r="S18" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Y18" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AB18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -18600,68 +18600,68 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>44</v>
+      <c r="S19" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AB19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -18677,68 +18677,68 @@
       <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="S20" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T20" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="Y20" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AB20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -18754,68 +18754,68 @@
       <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="S21" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T21" s="3" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="Y21" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="AB21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -18831,68 +18831,68 @@
       <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>30</v>
+      <c r="S22" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Y22" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AB22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -18908,68 +18908,68 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="S23" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Y23" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AB23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -18985,68 +18985,68 @@
       <c r="E24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>43</v>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
-      <c r="K24" t="s">
-        <v>17</v>
+      <c r="K24" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="M24" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="N24" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S24" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T24" s="3" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z24" s="5" t="s">
+      <c r="Y24" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AB24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>311</v>
       </c>
@@ -19062,68 +19062,68 @@
       <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>44</v>
+      <c r="S25" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="Y25" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AB25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -19139,65 +19139,65 @@
       <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1971</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26">
         <v>2003</v>
       </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1971</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>47</v>
+      <c r="S26" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Y26" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="AB26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -19213,68 +19213,68 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="S27" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T27" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>336</v>
+        <v>110</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="Y27" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="AB27" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>338</v>
       </c>
@@ -19290,68 +19290,68 @@
       <c r="E28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>44</v>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
-      <c r="K28" t="s">
-        <v>18</v>
+      <c r="K28" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M28" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="M28" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="N28" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="S28" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>346</v>
+        <v>110</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Y28" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="AB28" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>348</v>
       </c>
@@ -19367,68 +19367,68 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>35</v>
+      <c r="S29" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z29" s="5" t="s">
+      <c r="Y29" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="AB29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -19444,8 +19444,14 @@
       <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>38</v>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -19453,59 +19459,53 @@
       <c r="J30" t="s">
         <v>18</v>
       </c>
-      <c r="K30" t="s">
-        <v>18</v>
+      <c r="K30" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="M30" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="N30" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="S30" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="T30" s="3" t="s">
-        <v>364</v>
+        <v>121</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>121</v>
+        <v>365</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>365</v>
+        <v>123</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z30" s="5" t="s">
+      <c r="Y30" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AB30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>367</v>
       </c>
@@ -19521,68 +19521,68 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="S31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="U31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="V31" s="3" t="s">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="5" t="s">
+      <c r="Y31" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="AB31" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>376</v>
       </c>
@@ -19598,68 +19598,68 @@
       <c r="E32" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>42</v>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
-      <c r="K32" t="s">
-        <v>18</v>
+      <c r="K32" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="M32" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="M32" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="N32" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="S32" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T32" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z32" s="5" t="s">
+      <c r="Y32" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="AB32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>385</v>
       </c>
@@ -19675,68 +19675,68 @@
       <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>46</v>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
       </c>
-      <c r="K33" t="s">
-        <v>15</v>
+      <c r="K33" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="M33" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="N33" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z33" s="5" t="s">
+      <c r="Y33" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="AB33" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>392</v>
       </c>
@@ -19752,68 +19752,68 @@
       <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>52</v>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
-      <c r="K34" t="s">
-        <v>18</v>
+      <c r="K34" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="2" t="s">
         <v>394</v>
       </c>
+      <c r="M34" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="N34" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>398</v>
+        <v>50</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>88</v>
+        <v>399</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="Y34" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="AB34" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>401</v>
       </c>
@@ -19829,8 +19829,14 @@
       <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>28</v>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -19838,59 +19844,53 @@
       <c r="J35" t="s">
         <v>18</v>
       </c>
-      <c r="K35" t="s">
-        <v>18</v>
+      <c r="K35" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M35" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="M35" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="N35" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>405</v>
+        <v>88</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>406</v>
+        <v>28</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="S35" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="T35" s="3" t="s">
-        <v>364</v>
+        <v>121</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>121</v>
+        <v>407</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="Y35" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="AB35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>409</v>
       </c>
@@ -19906,68 +19906,68 @@
       <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>39</v>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
         <v>16</v>
       </c>
+      <c r="K36" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="L36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="M36" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="N36" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>415</v>
+        <v>205</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>205</v>
+        <v>416</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>416</v>
+        <v>39</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="S36" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T36" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>417</v>
+        <v>110</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z36" s="5" t="s">
+      <c r="Y36" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="AB36" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>419</v>
       </c>
@@ -19983,68 +19983,68 @@
       <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>46</v>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
-      <c r="K37" t="s">
-        <v>18</v>
+      <c r="K37" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M37" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="M37" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="N37" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>424</v>
+        <v>256</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>256</v>
+        <v>425</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="S37" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T37" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z37" s="5" t="s">
+      <c r="Y37" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="AB37" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>428</v>
       </c>
@@ -20060,68 +20060,68 @@
       <c r="E38" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="S38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="V38" s="3" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z38" s="5" t="s">
+      <c r="Y38" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="AB38" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -20137,68 +20137,68 @@
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>55</v>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
         <v>18</v>
       </c>
-      <c r="K39" t="s">
-        <v>18</v>
+      <c r="K39" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M39" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="M39" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="N39" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>439</v>
+        <v>88</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="S39" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T39" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>88</v>
+        <v>441</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>441</v>
+        <v>110</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z39" s="5" t="s">
+      <c r="Y39" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="AB39" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>443</v>
       </c>
@@ -20214,68 +20214,68 @@
       <c r="E40" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="3">
-        <v>2004</v>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
       </c>
-      <c r="K40" t="s">
-        <v>16</v>
+      <c r="K40" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="M40" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="N40" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>447</v>
+        <v>88</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="R40" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="R40" s="3">
+        <v>2004</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T40" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>449</v>
+        <v>110</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="Y40" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AB40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>451</v>
       </c>
@@ -20291,68 +20291,68 @@
       <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>34</v>
+      <c r="S41" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>459</v>
+        <v>110</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z41" s="5" t="s">
+      <c r="Y41" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AB41" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>461</v>
       </c>
@@ -20368,8 +20368,14 @@
       <c r="E42" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>49</v>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -20377,59 +20383,53 @@
       <c r="J42" t="s">
         <v>18</v>
       </c>
-      <c r="K42" t="s">
-        <v>18</v>
+      <c r="K42" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M42" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="M42" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="N42" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>467</v>
+        <v>49</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="S42" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T42" s="3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z42" s="5" t="s">
+      <c r="Y42" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AB42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>469</v>
       </c>
@@ -20445,68 +20445,68 @@
       <c r="E43" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S43" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T43" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>121</v>
+        <v>475</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>476</v>
+        <v>94</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z43" s="5" t="s">
+      <c r="Y43" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="AB43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>478</v>
       </c>
@@ -20522,68 +20522,68 @@
       <c r="E44" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>48</v>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
       </c>
-      <c r="K44" t="s">
-        <v>16</v>
+      <c r="K44" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="M44" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="N44" s="3" t="s">
-        <v>481</v>
+        <v>214</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>215</v>
+        <v>482</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z44" s="5" t="s">
+      <c r="Y44" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="AB44" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>484</v>
       </c>
@@ -20599,68 +20599,68 @@
       <c r="E45" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="S45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="V45" s="3" t="s">
-        <v>88</v>
+        <v>490</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>490</v>
+        <v>94</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z45" s="5" t="s">
+      <c r="Y45" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="AB45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>492</v>
       </c>
@@ -20676,68 +20676,68 @@
       <c r="E46" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q46" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="I46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="S46" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="T46" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>121</v>
+        <v>498</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>499</v>
+        <v>94</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z46" s="5" t="s">
+      <c r="Y46" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="AB46" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>501</v>
       </c>
@@ -20753,68 +20753,68 @@
       <c r="E47" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>50</v>
+      <c r="S47" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>88</v>
+        <v>399</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z47" s="5" t="s">
+      <c r="Y47" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="AB47" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>505</v>
       </c>
@@ -20830,68 +20830,68 @@
       <c r="E48" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="I48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>36</v>
+      <c r="S48" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>187</v>
+        <v>514</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>515</v>
+        <v>110</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y48" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z48" s="5" t="s">
+      <c r="Y48" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="AB48" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>517</v>
       </c>
@@ -20907,68 +20907,68 @@
       <c r="E49" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>29</v>
+      <c r="S49" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>527</v>
+        <v>94</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z49" s="5" t="s">
+      <c r="Y49" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="AB49" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>529</v>
       </c>
@@ -20984,68 +20984,68 @@
       <c r="E50" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q50" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="S50" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="T50" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z50" s="5" t="s">
+      <c r="Y50" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="AB50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>542</v>
       </c>
@@ -21061,65 +21061,65 @@
       <c r="E51" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>46</v>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" t="s">
         <v>16</v>
       </c>
+      <c r="K51" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="L51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M51" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="M51" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="N51" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>550</v>
+        <v>46</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="S51" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="T51" s="3" t="s">
-        <v>152</v>
+        <v>551</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>475</v>
+        <v>282</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z51" s="5" t="s">
+      <c r="Y51" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
